--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:27+00:00</t>
+    <t>2024-01-25T17:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-25T17:55:23+00:00</t>
+    <t>2024-01-26T18:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T18:28:41+00:00</t>
+    <t>2024-01-29T09:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T09:55:10+00:00</t>
+    <t>2024-01-29T16:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T16:18:50+00:00</t>
+    <t>2024-01-29T17:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T17:19:23+00:00</t>
+    <t>2024-01-29T18:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:07:49+00:00</t>
+    <t>2024-01-29T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:45:36+00:00</t>
+    <t>2024-01-30T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:03:32+00:00</t>
+    <t>2024-01-30T19:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T19:10:16+00:00</t>
+    <t>2024-01-30T20:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:20:44+00:00</t>
+    <t>2024-01-30T20:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:36:49+00:00</t>
+    <t>2024-01-31T09:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:58:08+00:00</t>
+    <t>2024-01-31T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:01:24+00:00</t>
+    <t>2024-01-31T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T14:52:20+00:00</t>
+    <t>2024-01-31T15:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T15:44:28+00:00</t>
+    <t>2024-01-31T17:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:33:42+00:00</t>
+    <t>2024-01-31T17:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:34:59+00:00</t>
+    <t>2024-01-31T17:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:53:22+00:00</t>
+    <t>2024-02-01T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T09:35:36+00:00</t>
+    <t>2024-02-01T10:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:32:02+00:00</t>
+    <t>2024-02-01T10:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:54:31+00:00</t>
+    <t>2024-02-01T11:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T11:14:35+00:00</t>
+    <t>2024-02-01T13:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T13:00:03+00:00</t>
+    <t>2024-02-01T16:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:21:00+00:00</t>
+    <t>2024-02-01T16:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:42:37+00:00</t>
+    <t>2024-02-01T17:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:08:29+00:00</t>
+    <t>2024-02-01T17:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:43:36+00:00</t>
+    <t>2024-02-01T18:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T18:39:39+00:00</t>
+    <t>2024-02-02T08:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:32:51+00:00</t>
+    <t>2024-02-02T08:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:59:39+00:00</t>
+    <t>2024-02-02T10:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T10:38:11+00:00</t>
+    <t>2024-02-02T13:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T13:56:21+00:00</t>
+    <t>2024-02-02T16:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T16:42:05+00:00</t>
+    <t>2024-02-02T19:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T19:41:48+00:00</t>
+    <t>2024-02-02T21:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T21:16:55+00:00</t>
+    <t>2024-02-02T22:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:06:01+00:00</t>
+    <t>2024-02-02T22:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:50:29+00:00</t>
+    <t>2024-02-02T23:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T23:12:26+00:00</t>
+    <t>2024-02-05T13:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:18:43+00:00</t>
+    <t>2024-02-05T15:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-available-time-effective-opening-closing-date.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:08:12+00:00</t>
+    <t>2024-02-15T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
